--- a/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationprescription.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6641" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6382" uniqueCount="673">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T19:08:44+00:00</t>
+    <t>2024-12-17T21:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1660,7 +1660,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -1944,61 +1944,6 @@
     <t>PDF</t>
   </si>
   <si>
-    <t>Composition.section:originalRepresentation.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.id</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html) or [Composition.section.text](http://hl7.org/fhir/R4/composition-definitions.html#Composition.section.text)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](StructureDefinition-originalText.html) which claims that the data is derived from the text provided or linked to.</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.reference</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.type</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.identifier</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.display</t>
-  </si>
-  <si>
-    <t>Composition.section.entry.display</t>
-  </si>
-  <si>
     <t>Composition.section:originalRepresentation.emptyReason</t>
   </si>
   <si>
@@ -2072,19 +2017,37 @@
     <t>Composition.section:prescription.entry.id</t>
   </si>
   <si>
+    <t>Composition.section.entry.id</t>
+  </si>
+  <si>
     <t>Composition.section:prescription.entry.extension</t>
   </si>
   <si>
+    <t>Composition.section.entry.extension</t>
+  </si>
+  <si>
     <t>Composition.section:prescription.entry.reference</t>
   </si>
   <si>
+    <t>Composition.section.entry.reference</t>
+  </si>
+  <si>
     <t>Composition.section:prescription.entry.type</t>
   </si>
   <si>
+    <t>Composition.section.entry.type</t>
+  </si>
+  <si>
     <t>Composition.section:prescription.entry.identifier</t>
   </si>
   <si>
+    <t>Composition.section.entry.identifier</t>
+  </si>
+  <si>
     <t>Composition.section:prescription.entry.display</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.display</t>
   </si>
   <si>
     <t>Composition.section:prescription.emptyReason</t>
@@ -2465,7 +2428,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO178"/>
+  <dimension ref="A1:AO171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2474,7 +2437,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.90625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -18326,7 +18289,7 @@
         <v>620</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18349,16 +18312,20 @@
         <v>80</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>172</v>
+        <v>588</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P136" t="s" s="2">
         <v>80</v>
       </c>
@@ -18382,13 +18349,13 @@
         <v>80</v>
       </c>
       <c r="X136" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>80</v>
@@ -18406,7 +18373,7 @@
         <v>80</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>174</v>
+        <v>587</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>81</v>
@@ -18415,19 +18382,19 @@
         <v>92</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL136" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM136" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AN136" t="s" s="2">
         <v>80</v>
@@ -18438,21 +18405,21 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>80</v>
@@ -18464,16 +18431,16 @@
         <v>80</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>177</v>
+        <v>596</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>178</v>
+        <v>597</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>157</v>
+        <v>598</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
@@ -18511,19 +18478,19 @@
         <v>80</v>
       </c>
       <c r="AB137" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC137" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>180</v>
+        <v>595</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -18532,19 +18499,19 @@
         <v>82</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK137" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>175</v>
+        <v>532</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>80</v>
@@ -18555,20 +18522,20 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>92</v>
@@ -18583,17 +18550,15 @@
         <v>80</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>626</v>
+        <v>396</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" t="s" s="2">
         <v>80</v>
@@ -18642,7 +18607,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>180</v>
+        <v>526</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -18654,16 +18619,16 @@
         <v>80</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>143</v>
+        <v>531</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>80</v>
@@ -18674,10 +18639,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>631</v>
+        <v>534</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18697,20 +18662,18 @@
         <v>80</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>80</v>
@@ -18759,7 +18722,7 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -18768,16 +18731,16 @@
         <v>92</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>80</v>
@@ -18791,21 +18754,21 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>633</v>
+        <v>535</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>80</v>
@@ -18814,19 +18777,19 @@
         <v>80</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -18852,13 +18815,13 @@
         <v>80</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>80</v>
@@ -18876,25 +18839,25 @@
         <v>80</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>80</v>
@@ -18908,44 +18871,46 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>635</v>
+        <v>536</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J141" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O141" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O141" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P141" t="s" s="2">
         <v>80</v>
       </c>
@@ -18993,25 +18958,25 @@
         <v>80</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>80</v>
@@ -19025,18 +18990,18 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>637</v>
+        <v>537</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>92</v>
@@ -19048,21 +19013,23 @@
         <v>80</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>298</v>
+        <v>629</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>299</v>
+        <v>540</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O142" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="P142" t="s" s="2">
         <v>80</v>
       </c>
@@ -19110,7 +19077,7 @@
         <v>80</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>81</v>
@@ -19128,10 +19095,10 @@
         <v>80</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>80</v>
@@ -19142,10 +19109,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -19153,7 +19120,7 @@
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>92</v>
@@ -19171,16 +19138,16 @@
         <v>192</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>80</v>
@@ -19190,7 +19157,7 @@
         <v>80</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>80</v>
+        <v>631</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>80</v>
@@ -19205,13 +19172,13 @@
         <v>80</v>
       </c>
       <c r="X143" t="s" s="2">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="Y143" t="s" s="2">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="Z143" t="s" s="2">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="AA143" t="s" s="2">
         <v>80</v>
@@ -19229,7 +19196,7 @@
         <v>80</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -19238,7 +19205,7 @@
         <v>92</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>584</v>
+        <v>80</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>104</v>
@@ -19247,10 +19214,10 @@
         <v>80</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>594</v>
+        <v>251</v>
       </c>
       <c r="AM143" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="AN143" t="s" s="2">
         <v>80</v>
@@ -19261,10 +19228,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19275,7 +19242,7 @@
         <v>81</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>80</v>
@@ -19287,18 +19254,18 @@
         <v>80</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O144" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P144" t="s" s="2">
         <v>80</v>
       </c>
@@ -19346,7 +19313,7 @@
         <v>80</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>81</v>
@@ -19355,7 +19322,7 @@
         <v>82</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>104</v>
@@ -19364,34 +19331,32 @@
         <v>80</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>532</v>
+        <v>331</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>599</v>
+        <v>332</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C145" t="s" s="2">
-        <v>641</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>92</v>
@@ -19406,15 +19371,17 @@
         <v>80</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>642</v>
+        <v>554</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>80</v>
@@ -19463,28 +19430,28 @@
         <v>80</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AK145" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>80</v>
@@ -19495,10 +19462,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19521,15 +19488,17 @@
         <v>80</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>172</v>
+        <v>635</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N146" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>80</v>
@@ -19578,7 +19547,7 @@
         <v>80</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>174</v>
+        <v>558</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -19587,19 +19556,19 @@
         <v>92</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>175</v>
+        <v>563</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>80</v>
@@ -19610,21 +19579,21 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>80</v>
@@ -19636,18 +19605,20 @@
         <v>80</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>177</v>
+        <v>565</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>178</v>
+        <v>566</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O147" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P147" t="s" s="2">
         <v>80</v>
       </c>
@@ -19671,13 +19642,13 @@
         <v>80</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>80</v>
@@ -19695,77 +19666,77 @@
         <v>80</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH147" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL147" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM147" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM147" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN147" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G148" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>409</v>
+        <v>573</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>410</v>
+        <v>574</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>157</v>
+        <v>575</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>158</v>
+        <v>576</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>80</v>
@@ -19790,13 +19761,13 @@
         <v>80</v>
       </c>
       <c r="X148" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y148" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="AA148" t="s" s="2">
         <v>80</v>
@@ -19814,28 +19785,28 @@
         <v>80</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>411</v>
+        <v>572</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK148" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL148" t="s" s="2">
-        <v>135</v>
+        <v>579</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>80</v>
@@ -19846,21 +19817,21 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
         <v>92</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>80</v>
@@ -19872,20 +19843,18 @@
         <v>80</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>171</v>
+        <v>639</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
         <v>80</v>
       </c>
@@ -19933,16 +19902,16 @@
         <v>80</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>104</v>
@@ -19951,10 +19920,10 @@
         <v>80</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>372</v>
+        <v>585</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>373</v>
+        <v>586</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>80</v>
@@ -19965,10 +19934,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>543</v>
+        <v>642</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19976,7 +19945,7 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>92</v>
@@ -19991,20 +19960,16 @@
         <v>80</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>544</v>
+        <v>172</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
       <c r="P150" t="s" s="2">
         <v>80</v>
       </c>
@@ -20013,7 +19978,7 @@
         <v>80</v>
       </c>
       <c r="S150" t="s" s="2">
-        <v>649</v>
+        <v>80</v>
       </c>
       <c r="T150" t="s" s="2">
         <v>80</v>
@@ -20028,13 +19993,13 @@
         <v>80</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="Y150" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="Z150" t="s" s="2">
-        <v>549</v>
+        <v>80</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>80</v>
@@ -20052,7 +20017,7 @@
         <v>80</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
@@ -20064,16 +20029,16 @@
         <v>80</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK150" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="AM150" t="s" s="2">
-        <v>252</v>
+        <v>80</v>
       </c>
       <c r="AN150" t="s" s="2">
         <v>80</v>
@@ -20084,14 +20049,14 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>550</v>
+        <v>644</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -20110,18 +20075,18 @@
         <v>80</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>551</v>
+        <v>177</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N151" s="2"/>
-      <c r="O151" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N151" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
         <v>80</v>
       </c>
@@ -20157,19 +20122,19 @@
         <v>80</v>
       </c>
       <c r="AB151" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AC151" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="AD151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -20181,30 +20146,30 @@
         <v>80</v>
       </c>
       <c r="AJ151" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>331</v>
+        <v>175</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AN151" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>553</v>
+        <v>646</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20212,7 +20177,7 @@
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G152" t="s" s="2">
         <v>92</v>
@@ -20224,19 +20189,19 @@
         <v>80</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>522</v>
+        <v>171</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>554</v>
+        <v>279</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>555</v>
+        <v>280</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>556</v>
+        <v>281</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -20286,7 +20251,7 @@
         <v>80</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>553</v>
+        <v>282</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
@@ -20295,7 +20260,7 @@
         <v>92</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>104</v>
@@ -20304,10 +20269,10 @@
         <v>80</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AM152" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="AN152" t="s" s="2">
         <v>80</v>
@@ -20318,10 +20283,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>558</v>
+        <v>648</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20341,19 +20306,19 @@
         <v>80</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>653</v>
+        <v>285</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>560</v>
+        <v>286</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>561</v>
+        <v>287</v>
       </c>
       <c r="O153" s="2"/>
       <c r="P153" t="s" s="2">
@@ -20379,13 +20344,13 @@
         <v>80</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="Z153" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AA153" t="s" s="2">
         <v>80</v>
@@ -20403,7 +20368,7 @@
         <v>80</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>81</v>
@@ -20412,7 +20377,7 @@
         <v>92</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>104</v>
@@ -20421,10 +20386,10 @@
         <v>80</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>563</v>
+        <v>135</v>
       </c>
       <c r="AM153" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="AN153" t="s" s="2">
         <v>80</v>
@@ -20435,10 +20400,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>564</v>
+        <v>650</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20458,23 +20423,21 @@
         <v>80</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>565</v>
+        <v>292</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>566</v>
+        <v>293</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O154" t="s" s="2">
-        <v>568</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
         <v>80</v>
       </c>
@@ -20498,13 +20461,13 @@
         <v>80</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>569</v>
+        <v>80</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>80</v>
@@ -20522,7 +20485,7 @@
         <v>80</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>564</v>
+        <v>295</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -20540,24 +20503,24 @@
         <v>80</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>571</v>
+        <v>296</v>
       </c>
       <c r="AM154" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AN154" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>572</v>
+        <v>652</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20577,23 +20540,21 @@
         <v>80</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>573</v>
+        <v>298</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>574</v>
+        <v>299</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>576</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
         <v>80</v>
       </c>
@@ -20617,13 +20578,13 @@
         <v>80</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>577</v>
+        <v>80</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>80</v>
@@ -20641,7 +20602,7 @@
         <v>80</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>572</v>
+        <v>301</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -20659,10 +20620,10 @@
         <v>80</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>579</v>
+        <v>135</v>
       </c>
       <c r="AM155" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AN155" t="s" s="2">
         <v>80</v>
@@ -20673,10 +20634,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -20684,10 +20645,10 @@
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G156" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H156" t="s" s="2">
         <v>80</v>
@@ -20699,18 +20660,20 @@
         <v>80</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>657</v>
+        <v>192</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>658</v>
+        <v>588</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O156" s="2"/>
+        <v>590</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>591</v>
+      </c>
       <c r="P156" t="s" s="2">
         <v>80</v>
       </c>
@@ -20734,13 +20697,13 @@
         <v>80</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>80</v>
+        <v>592</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>80</v>
@@ -20758,13 +20721,13 @@
         <v>80</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH156" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI156" t="s" s="2">
         <v>584</v>
@@ -20776,10 +20739,10 @@
         <v>80</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="AM156" t="s" s="2">
-        <v>586</v>
+        <v>175</v>
       </c>
       <c r="AN156" t="s" s="2">
         <v>80</v>
@@ -20790,10 +20753,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20804,7 +20767,7 @@
         <v>81</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>80</v>
@@ -20816,15 +20779,17 @@
         <v>80</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>172</v>
+        <v>596</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N157" s="2"/>
+        <v>597</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>598</v>
+      </c>
       <c r="O157" s="2"/>
       <c r="P157" t="s" s="2">
         <v>80</v>
@@ -20873,28 +20838,28 @@
         <v>80</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>174</v>
+        <v>595</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK157" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>175</v>
+        <v>532</v>
       </c>
       <c r="AM157" t="s" s="2">
-        <v>80</v>
+        <v>599</v>
       </c>
       <c r="AN157" t="s" s="2">
         <v>80</v>
@@ -20905,21 +20870,23 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C158" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="D158" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>80</v>
@@ -20931,17 +20898,15 @@
         <v>80</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>137</v>
+        <v>396</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>177</v>
+        <v>657</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
         <v>80</v>
@@ -20978,19 +20943,19 @@
         <v>80</v>
       </c>
       <c r="AB158" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AC158" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AD158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>180</v>
+        <v>526</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -21002,16 +20967,16 @@
         <v>80</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>143</v>
+        <v>531</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>175</v>
+        <v>532</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>80</v>
@@ -21022,10 +20987,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>631</v>
+        <v>534</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21033,7 +20998,7 @@
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>92</v>
@@ -21045,20 +21010,18 @@
         <v>80</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>80</v>
@@ -21107,7 +21070,7 @@
         <v>80</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>81</v>
@@ -21116,16 +21079,16 @@
         <v>92</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK159" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>80</v>
@@ -21139,21 +21102,21 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>633</v>
+        <v>535</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>80</v>
@@ -21162,19 +21125,19 @@
         <v>80</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -21200,13 +21163,13 @@
         <v>80</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>80</v>
@@ -21224,25 +21187,25 @@
         <v>80</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK160" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>80</v>
@@ -21256,44 +21219,46 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>635</v>
+        <v>536</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J161" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O161" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="O161" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P161" t="s" s="2">
         <v>80</v>
       </c>
@@ -21341,25 +21306,25 @@
         <v>80</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>295</v>
+        <v>411</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK161" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>80</v>
@@ -21373,18 +21338,18 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>637</v>
+        <v>537</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G162" t="s" s="2">
         <v>92</v>
@@ -21396,21 +21361,23 @@
         <v>80</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K162" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>298</v>
+        <v>662</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>299</v>
+        <v>540</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O162" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="O162" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="P162" t="s" s="2">
         <v>80</v>
       </c>
@@ -21458,7 +21425,7 @@
         <v>80</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>81</v>
@@ -21476,10 +21443,10 @@
         <v>80</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>80</v>
@@ -21490,10 +21457,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -21501,7 +21468,7 @@
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>92</v>
@@ -21519,16 +21486,16 @@
         <v>192</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>80</v>
@@ -21538,7 +21505,7 @@
         <v>80</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>80</v>
+        <v>664</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>80</v>
@@ -21553,13 +21520,13 @@
         <v>80</v>
       </c>
       <c r="X163" t="s" s="2">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="Y163" t="s" s="2">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="Z163" t="s" s="2">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>80</v>
@@ -21577,7 +21544,7 @@
         <v>80</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
@@ -21586,7 +21553,7 @@
         <v>92</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>584</v>
+        <v>80</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>104</v>
@@ -21595,10 +21562,10 @@
         <v>80</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>594</v>
+        <v>251</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>80</v>
@@ -21609,10 +21576,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21623,7 +21590,7 @@
         <v>81</v>
       </c>
       <c r="G164" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H164" t="s" s="2">
         <v>80</v>
@@ -21635,18 +21602,18 @@
         <v>80</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>596</v>
+        <v>551</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O164" s="2"/>
+        <v>552</v>
+      </c>
+      <c r="N164" s="2"/>
+      <c r="O164" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P164" t="s" s="2">
         <v>80</v>
       </c>
@@ -21694,7 +21661,7 @@
         <v>80</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>595</v>
+        <v>550</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>81</v>
@@ -21703,7 +21670,7 @@
         <v>82</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>104</v>
@@ -21712,28 +21679,26 @@
         <v>80</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>532</v>
+        <v>331</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>599</v>
+        <v>332</v>
       </c>
       <c r="AN164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>80</v>
+        <v>334</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
         <v>80</v>
       </c>
@@ -21754,15 +21719,17 @@
         <v>80</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>396</v>
+        <v>522</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>669</v>
+        <v>554</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N165" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N165" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O165" s="2"/>
       <c r="P165" t="s" s="2">
         <v>80</v>
@@ -21811,28 +21778,28 @@
         <v>80</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>531</v>
+        <v>104</v>
       </c>
       <c r="AK165" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>532</v>
+        <v>80</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="AN165" t="s" s="2">
         <v>80</v>
@@ -21843,10 +21810,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21854,7 +21821,7 @@
       </c>
       <c r="E166" s="2"/>
       <c r="F166" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G166" t="s" s="2">
         <v>92</v>
@@ -21869,15 +21836,17 @@
         <v>80</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>172</v>
+        <v>635</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N166" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N166" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="O166" s="2"/>
       <c r="P166" t="s" s="2">
         <v>80</v>
@@ -21926,7 +21895,7 @@
         <v>80</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>174</v>
+        <v>558</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>81</v>
@@ -21935,19 +21904,19 @@
         <v>92</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>175</v>
+        <v>563</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>80</v>
@@ -21958,21 +21927,21 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>80</v>
@@ -21984,18 +21953,20 @@
         <v>80</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>177</v>
+        <v>565</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>178</v>
+        <v>566</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O167" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="P167" t="s" s="2">
         <v>80</v>
       </c>
@@ -22019,13 +21990,13 @@
         <v>80</v>
       </c>
       <c r="X167" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AA167" t="s" s="2">
         <v>80</v>
@@ -22043,77 +22014,77 @@
         <v>80</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL167" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM167" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM167" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="E168" s="2"/>
       <c r="F168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I168" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>409</v>
+        <v>573</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>410</v>
+        <v>574</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>157</v>
+        <v>575</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>158</v>
+        <v>576</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>80</v>
@@ -22138,13 +22109,13 @@
         <v>80</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="Z168" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="AA168" t="s" s="2">
         <v>80</v>
@@ -22162,28 +22133,28 @@
         <v>80</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>411</v>
+        <v>572</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK168" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>135</v>
+        <v>579</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>80</v>
@@ -22194,21 +22165,21 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G169" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H169" t="s" s="2">
         <v>80</v>
@@ -22220,20 +22191,18 @@
         <v>80</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>171</v>
+        <v>522</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>674</v>
+        <v>581</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O169" t="s" s="2">
-        <v>542</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="O169" s="2"/>
       <c r="P169" t="s" s="2">
         <v>80</v>
       </c>
@@ -22281,16 +22250,16 @@
         <v>80</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>104</v>
@@ -22299,10 +22268,10 @@
         <v>80</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>372</v>
+        <v>585</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>373</v>
+        <v>586</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>80</v>
@@ -22313,10 +22282,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -22324,7 +22293,7 @@
       </c>
       <c r="E170" s="2"/>
       <c r="F170" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G170" t="s" s="2">
         <v>92</v>
@@ -22342,16 +22311,16 @@
         <v>192</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>547</v>
+        <v>591</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>80</v>
@@ -22361,7 +22330,7 @@
         <v>80</v>
       </c>
       <c r="S170" t="s" s="2">
-        <v>676</v>
+        <v>80</v>
       </c>
       <c r="T170" t="s" s="2">
         <v>80</v>
@@ -22376,13 +22345,13 @@
         <v>80</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>80</v>
@@ -22400,7 +22369,7 @@
         <v>80</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>81</v>
@@ -22409,7 +22378,7 @@
         <v>92</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>104</v>
@@ -22418,10 +22387,10 @@
         <v>80</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>251</v>
+        <v>594</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>80</v>
@@ -22432,10 +22401,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>550</v>
+        <v>595</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -22446,7 +22415,7 @@
         <v>81</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>80</v>
@@ -22458,18 +22427,18 @@
         <v>80</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>551</v>
+        <v>596</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="N171" s="2"/>
-      <c r="O171" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>80</v>
       </c>
@@ -22517,7 +22486,7 @@
         <v>80</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>550</v>
+        <v>595</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>81</v>
@@ -22526,7 +22495,7 @@
         <v>82</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>104</v>
@@ -22535,840 +22504,15 @@
         <v>80</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>331</v>
+        <v>532</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>332</v>
+        <v>599</v>
       </c>
       <c r="AN171" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C172" s="2"/>
-      <c r="D172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E172" s="2"/>
-      <c r="F172" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G172" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="M172" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="O172" s="2"/>
-      <c r="P172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q172" s="2"/>
-      <c r="R172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF172" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="AG172" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH172" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ172" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM172" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AN172" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO172" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="C173" s="2"/>
-      <c r="D173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E173" s="2"/>
-      <c r="F173" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K173" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L173" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="M173" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q173" s="2"/>
-      <c r="R173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF173" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="AG173" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH173" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI173" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AJ173" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL173" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM173" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AN173" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO173" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="C174" s="2"/>
-      <c r="D174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E174" s="2"/>
-      <c r="F174" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G174" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K174" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L174" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="P174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q174" s="2"/>
-      <c r="R174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X174" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y174" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="Z174" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AA174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF174" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="AG174" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH174" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ174" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO174" t="s" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C175" s="2"/>
-      <c r="D175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E175" s="2"/>
-      <c r="F175" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G175" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K175" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="O175" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="P175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q175" s="2"/>
-      <c r="R175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X175" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y175" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="Z175" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AA175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF175" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AG175" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH175" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ175" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL175" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="AM175" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN175" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO175" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C176" s="2"/>
-      <c r="D176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E176" s="2"/>
-      <c r="F176" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="N176" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="O176" s="2"/>
-      <c r="P176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q176" s="2"/>
-      <c r="R176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL176" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO176" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C177" s="2"/>
-      <c r="D177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E177" s="2"/>
-      <c r="F177" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G177" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M177" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N177" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="O177" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="P177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q177" s="2"/>
-      <c r="R177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X177" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF177" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AG177" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH177" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI177" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AJ177" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL177" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AM177" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AN177" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO177" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="B178" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C178" s="2"/>
-      <c r="D178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E178" s="2"/>
-      <c r="F178" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G178" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="O178" s="2"/>
-      <c r="P178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q178" s="2"/>
-      <c r="R178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF178" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG178" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI178" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AJ178" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL178" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AM178" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AN178" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO178" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationprescription.xlsx
+++ b/ig/ch-emed/StructureDefinition-ch-emed-composition-medicationprescription.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6382" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6382" uniqueCount="672">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:35:32+00:00</t>
+    <t>2025-05-22T07:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1026,7 +1026,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization-epr)
 </t>
   </si>
   <si>
@@ -1101,7 +1101,7 @@
     <t>person</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -1346,7 +1346,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t>Composition.attester:legalAuthenticator.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner-epr|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole-epr)
 </t>
   </si>
   <si>
@@ -1913,10 +1913,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|RelatedPerson|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
-</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.focus</t>
@@ -2437,15 +2433,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.0625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.29296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2456,27 +2452,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.30859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="63.17578125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17606,7 +17602,7 @@
         <v>80</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>611</v>
+        <v>324</v>
       </c>
       <c r="L130" t="s" s="2">
         <v>551</v>
@@ -17697,7 +17693,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>553</v>
@@ -17814,7 +17810,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>558</v>
@@ -17843,7 +17839,7 @@
         <v>122</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>560</v>
@@ -17931,7 +17927,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>564</v>
@@ -18050,7 +18046,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>572</v>
@@ -18169,7 +18165,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>580</v>
@@ -18195,10 +18191,10 @@
         <v>80</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="M135" t="s" s="2">
         <v>582</v>
@@ -18286,7 +18282,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>587</v>
@@ -18405,7 +18401,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>595</v>
@@ -18522,13 +18518,13 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>526</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D138" t="s" s="2">
         <v>80</v>
@@ -18553,7 +18549,7 @@
         <v>396</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M138" t="s" s="2">
         <v>529</v>
@@ -18639,7 +18635,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>534</v>
@@ -18754,7 +18750,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>535</v>
@@ -18871,7 +18867,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>536</v>
@@ -18990,7 +18986,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>537</v>
@@ -19019,7 +19015,7 @@
         <v>171</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>540</v>
@@ -19109,7 +19105,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>543</v>
@@ -19157,7 +19153,7 @@
         <v>80</v>
       </c>
       <c r="S143" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="T143" t="s" s="2">
         <v>80</v>
@@ -19228,7 +19224,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>550</v>
@@ -19345,7 +19341,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>553</v>
@@ -19462,7 +19458,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>558</v>
@@ -19491,7 +19487,7 @@
         <v>122</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M146" t="s" s="2">
         <v>560</v>
@@ -19579,7 +19575,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>564</v>
@@ -19698,7 +19694,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>572</v>
@@ -19817,7 +19813,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>580</v>
@@ -19843,10 +19839,10 @@
         <v>80</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M149" t="s" s="2">
         <v>582</v>
@@ -19934,10 +19930,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>641</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>642</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -20049,10 +20045,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B151" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="B151" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20166,10 +20162,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B152" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="B152" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20283,10 +20279,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B153" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="B153" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20400,10 +20396,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B154" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="B154" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20517,10 +20513,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B155" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="B155" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20634,7 +20630,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>587</v>
@@ -20753,7 +20749,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>595</v>
@@ -20870,13 +20866,13 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>526</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>80</v>
@@ -20901,7 +20897,7 @@
         <v>396</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M158" t="s" s="2">
         <v>529</v>
@@ -20987,7 +20983,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>534</v>
@@ -21102,7 +21098,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>535</v>
@@ -21219,7 +21215,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>536</v>
@@ -21338,7 +21334,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>537</v>
@@ -21367,7 +21363,7 @@
         <v>171</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M162" t="s" s="2">
         <v>540</v>
@@ -21457,7 +21453,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>543</v>
@@ -21505,7 +21501,7 @@
         <v>80</v>
       </c>
       <c r="S163" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="T163" t="s" s="2">
         <v>80</v>
@@ -21576,7 +21572,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>550</v>
@@ -21693,7 +21689,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>553</v>
@@ -21810,7 +21806,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>558</v>
@@ -21839,7 +21835,7 @@
         <v>122</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M166" t="s" s="2">
         <v>560</v>
@@ -21927,7 +21923,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>564</v>
@@ -22046,7 +22042,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>572</v>
@@ -22165,7 +22161,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>580</v>
@@ -22282,7 +22278,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>587</v>
@@ -22401,7 +22397,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>595</v>
